--- a/sparklyRGT_tutorial/compare_access_Free_S33-37_jun16.xlsx
+++ b/sparklyRGT_tutorial/compare_access_Free_S33-37_jun16.xlsx
@@ -1404,19 +1404,19 @@
         <v>0</v>
       </c>
       <c r="DH2">
-        <v>0.9090909090909091</v>
+        <v>90.90909090909091</v>
       </c>
       <c r="DI2">
-        <v>0.8674698795180723</v>
+        <v>86.74698795180723</v>
       </c>
       <c r="DJ2">
-        <v>0.8953488372093024</v>
+        <v>89.53488372093024</v>
       </c>
       <c r="DK2">
-        <v>0.8888888888888888</v>
+        <v>88.88888888888889</v>
       </c>
       <c r="DL2">
-        <v>0.8767123287671232</v>
+        <v>87.67123287671232</v>
       </c>
     </row>
     <row r="3" spans="1:116">
@@ -1754,19 +1754,19 @@
         <v>12.5</v>
       </c>
       <c r="DH3">
-        <v>0.8735632183908046</v>
+        <v>87.35632183908046</v>
       </c>
       <c r="DI3">
-        <v>0.71</v>
+        <v>71</v>
       </c>
       <c r="DJ3">
-        <v>0.7446808510638298</v>
+        <v>74.46808510638297</v>
       </c>
       <c r="DK3">
-        <v>0.7213114754098361</v>
+        <v>72.1311475409836</v>
       </c>
       <c r="DL3">
-        <v>0.8987341772151899</v>
+        <v>89.87341772151899</v>
       </c>
     </row>
     <row r="4" spans="1:116">
@@ -2104,19 +2104,19 @@
         <v>11.53846153846154</v>
       </c>
       <c r="DH4">
-        <v>0.2842105263157895</v>
+        <v>28.42105263157895</v>
       </c>
       <c r="DI4">
-        <v>0.1956521739130435</v>
+        <v>19.56521739130435</v>
       </c>
       <c r="DJ4">
-        <v>0.2233009708737864</v>
+        <v>22.33009708737864</v>
       </c>
       <c r="DK4">
-        <v>0.3267326732673267</v>
+        <v>32.67326732673268</v>
       </c>
       <c r="DL4">
-        <v>0.22</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:116">
@@ -2454,19 +2454,19 @@
         <v>12.12121212121212</v>
       </c>
       <c r="DH5">
-        <v>0.7109375</v>
+        <v>71.09375</v>
       </c>
       <c r="DI5">
-        <v>0.6875</v>
+        <v>68.75</v>
       </c>
       <c r="DJ5">
-        <v>0.7037037037037037</v>
+        <v>70.37037037037037</v>
       </c>
       <c r="DK5">
-        <v>0.8100000000000001</v>
+        <v>81</v>
       </c>
       <c r="DL5">
-        <v>0.6666666666666666</v>
+        <v>66.66666666666666</v>
       </c>
     </row>
     <row r="6" spans="1:116">
@@ -2804,19 +2804,19 @@
         <v>12.76595744680851</v>
       </c>
       <c r="DH6">
-        <v>0.1578947368421053</v>
+        <v>15.78947368421053</v>
       </c>
       <c r="DI6">
-        <v>0.2307692307692308</v>
+        <v>23.07692307692308</v>
       </c>
       <c r="DJ6">
-        <v>0.1764705882352941</v>
+        <v>17.64705882352941</v>
       </c>
       <c r="DK6">
-        <v>0.1836734693877551</v>
+        <v>18.36734693877551</v>
       </c>
       <c r="DL6">
-        <v>0.1754385964912281</v>
+        <v>17.5438596491228</v>
       </c>
     </row>
     <row r="7" spans="1:116">
@@ -3154,19 +3154,19 @@
         <v>11.11111111111111</v>
       </c>
       <c r="DH7">
-        <v>0.7560975609756098</v>
+        <v>75.60975609756098</v>
       </c>
       <c r="DI7">
-        <v>0.6144578313253012</v>
+        <v>61.44578313253012</v>
       </c>
       <c r="DJ7">
-        <v>0.5934065934065934</v>
+        <v>59.34065934065934</v>
       </c>
       <c r="DK7">
-        <v>0.5894736842105263</v>
+        <v>58.94736842105262</v>
       </c>
       <c r="DL7">
-        <v>0.5909090909090909</v>
+        <v>59.09090909090909</v>
       </c>
     </row>
     <row r="8" spans="1:116">
@@ -3504,19 +3504,19 @@
         <v>50</v>
       </c>
       <c r="DH8">
-        <v>0.8769230769230769</v>
+        <v>87.69230769230769</v>
       </c>
       <c r="DI8">
-        <v>0.890625</v>
+        <v>89.0625</v>
       </c>
       <c r="DJ8">
-        <v>0.9264705882352942</v>
+        <v>92.64705882352942</v>
       </c>
       <c r="DK8">
-        <v>0.8769230769230769</v>
+        <v>87.69230769230769</v>
       </c>
       <c r="DL8">
-        <v>0.8873239436619719</v>
+        <v>88.73239436619718</v>
       </c>
     </row>
     <row r="9" spans="1:116">
@@ -3854,19 +3854,19 @@
         <v>14.28571428571428</v>
       </c>
       <c r="DH9">
-        <v>0.8484848484848485</v>
+        <v>84.84848484848484</v>
       </c>
       <c r="DI9">
-        <v>0.845360824742268</v>
+        <v>84.5360824742268</v>
       </c>
       <c r="DJ9">
-        <v>0.8085106382978723</v>
+        <v>80.85106382978722</v>
       </c>
       <c r="DK9">
-        <v>0.8202247191011236</v>
+        <v>82.02247191011236</v>
       </c>
       <c r="DL9">
-        <v>0.78125</v>
+        <v>78.125</v>
       </c>
     </row>
     <row r="10" spans="1:116">
@@ -4204,19 +4204,19 @@
         <v>23.07692307692308</v>
       </c>
       <c r="DH10">
-        <v>0.8695652173913043</v>
+        <v>86.95652173913044</v>
       </c>
       <c r="DI10">
-        <v>0.911504424778761</v>
+        <v>91.1504424778761</v>
       </c>
       <c r="DJ10">
-        <v>0.865546218487395</v>
+        <v>86.5546218487395</v>
       </c>
       <c r="DK10">
-        <v>0.7899159663865546</v>
+        <v>78.99159663865547</v>
       </c>
       <c r="DL10">
-        <v>0.8934426229508197</v>
+        <v>89.34426229508196</v>
       </c>
     </row>
     <row r="11" spans="1:116">
@@ -4554,19 +4554,19 @@
         <v>23.52941176470588</v>
       </c>
       <c r="DH11">
-        <v>0.888</v>
+        <v>88.8</v>
       </c>
       <c r="DI11">
-        <v>0.8074074074074075</v>
+        <v>80.74074074074075</v>
       </c>
       <c r="DJ11">
-        <v>0.8955223880597015</v>
+        <v>89.55223880597015</v>
       </c>
       <c r="DK11">
-        <v>0.8413793103448276</v>
+        <v>84.13793103448276</v>
       </c>
       <c r="DL11">
-        <v>0.8768115942028986</v>
+        <v>87.68115942028986</v>
       </c>
     </row>
     <row r="12" spans="1:116">
@@ -4904,19 +4904,19 @@
         <v>15.15151515151515</v>
       </c>
       <c r="DH12">
-        <v>0.5844155844155844</v>
+        <v>58.44155844155844</v>
       </c>
       <c r="DI12">
-        <v>0.5</v>
+        <v>50</v>
       </c>
       <c r="DJ12">
-        <v>0.5753424657534246</v>
+        <v>57.53424657534246</v>
       </c>
       <c r="DK12">
-        <v>0.5</v>
+        <v>50</v>
       </c>
       <c r="DL12">
-        <v>0.5147058823529411</v>
+        <v>51.47058823529412</v>
       </c>
     </row>
     <row r="13" spans="1:116">
@@ -5254,19 +5254,19 @@
         <v>27.77777777777778</v>
       </c>
       <c r="DH13">
-        <v>0.5465116279069767</v>
+        <v>54.65116279069767</v>
       </c>
       <c r="DI13">
-        <v>0.4683544303797468</v>
+        <v>46.83544303797468</v>
       </c>
       <c r="DJ13">
-        <v>0.6896551724137931</v>
+        <v>68.96551724137932</v>
       </c>
       <c r="DK13">
-        <v>0.6979166666666666</v>
+        <v>69.79166666666666</v>
       </c>
       <c r="DL13">
-        <v>0.6326530612244898</v>
+        <v>63.26530612244898</v>
       </c>
     </row>
     <row r="14" spans="1:116">
@@ -5604,19 +5604,19 @@
         <v>15.78947368421053</v>
       </c>
       <c r="DH14">
-        <v>0.8990825688073395</v>
+        <v>89.90825688073394</v>
       </c>
       <c r="DI14">
-        <v>0.776595744680851</v>
+        <v>77.6595744680851</v>
       </c>
       <c r="DJ14">
-        <v>0.8548387096774194</v>
+        <v>85.48387096774194</v>
       </c>
       <c r="DK14">
-        <v>0.875</v>
+        <v>87.5</v>
       </c>
       <c r="DL14">
-        <v>0.8061224489795918</v>
+        <v>80.61224489795919</v>
       </c>
     </row>
     <row r="15" spans="1:116">
@@ -5954,19 +5954,19 @@
         <v>11.53846153846154</v>
       </c>
       <c r="DH15">
-        <v>0.5128205128205128</v>
+        <v>51.28205128205128</v>
       </c>
       <c r="DI15">
-        <v>0.6</v>
+        <v>60</v>
       </c>
       <c r="DJ15">
-        <v>0.7536231884057971</v>
+        <v>75.36231884057972</v>
       </c>
       <c r="DK15">
-        <v>0.6666666666666666</v>
+        <v>66.66666666666666</v>
       </c>
       <c r="DL15">
-        <v>0.5806451612903226</v>
+        <v>58.06451612903226</v>
       </c>
     </row>
     <row r="16" spans="1:116">
@@ -6304,19 +6304,19 @@
         <v>14.28571428571428</v>
       </c>
       <c r="DH16">
-        <v>0.9908256880733946</v>
+        <v>99.08256880733946</v>
       </c>
       <c r="DI16">
-        <v>0.9175257731958762</v>
+        <v>91.75257731958763</v>
       </c>
       <c r="DJ16">
-        <v>0.9387755102040817</v>
+        <v>93.87755102040816</v>
       </c>
       <c r="DK16">
-        <v>0.9741379310344828</v>
+        <v>97.41379310344827</v>
       </c>
       <c r="DL16">
-        <v>0.9396551724137931</v>
+        <v>93.96551724137932</v>
       </c>
     </row>
     <row r="17" spans="1:116">
@@ -6654,19 +6654,19 @@
         <v>2.816901408450704</v>
       </c>
       <c r="DH17">
-        <v>0.1262135922330097</v>
+        <v>12.62135922330097</v>
       </c>
       <c r="DI17">
-        <v>0.1176470588235294</v>
+        <v>11.76470588235294</v>
       </c>
       <c r="DJ17">
-        <v>0.2150537634408602</v>
+        <v>21.50537634408602</v>
       </c>
       <c r="DK17">
-        <v>0.1463414634146341</v>
+        <v>14.63414634146341</v>
       </c>
       <c r="DL17">
-        <v>0.2022471910112359</v>
+        <v>20.22471910112359</v>
       </c>
     </row>
     <row r="18" spans="1:116">
@@ -7004,19 +7004,19 @@
         <v>12.5</v>
       </c>
       <c r="DH18">
-        <v>0.803030303030303</v>
+        <v>80.3030303030303</v>
       </c>
       <c r="DI18">
-        <v>0.7966101694915254</v>
+        <v>79.66101694915254</v>
       </c>
       <c r="DJ18">
-        <v>0.9354838709677419</v>
+        <v>93.54838709677419</v>
       </c>
       <c r="DK18">
-        <v>0.90625</v>
+        <v>90.625</v>
       </c>
       <c r="DL18">
-        <v>0.8823529411764706</v>
+        <v>88.23529411764706</v>
       </c>
     </row>
     <row r="19" spans="1:116">
@@ -7309,19 +7309,19 @@
         <v>0</v>
       </c>
       <c r="DH19">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="DI19">
-        <v>0.9918032786885246</v>
+        <v>99.18032786885246</v>
       </c>
       <c r="DJ19">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="DK19">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="DL19">
-        <v>0.9928571428571429</v>
+        <v>99.28571428571429</v>
       </c>
     </row>
     <row r="20" spans="1:116">
@@ -7659,19 +7659,19 @@
         <v>1.96078431372549</v>
       </c>
       <c r="DH20">
-        <v>0.3370786516853932</v>
+        <v>33.70786516853933</v>
       </c>
       <c r="DI20">
-        <v>0.2933333333333333</v>
+        <v>29.33333333333333</v>
       </c>
       <c r="DJ20">
-        <v>0.3229166666666667</v>
+        <v>32.29166666666667</v>
       </c>
       <c r="DK20">
-        <v>0.3846153846153846</v>
+        <v>38.46153846153847</v>
       </c>
       <c r="DL20">
-        <v>0.4333333333333333</v>
+        <v>43.33333333333334</v>
       </c>
     </row>
     <row r="21" spans="1:116">
@@ -8009,19 +8009,19 @@
         <v>13.95348837209302</v>
       </c>
       <c r="DH21">
-        <v>0.592</v>
+        <v>59.2</v>
       </c>
       <c r="DI21">
-        <v>0.7047619047619048</v>
+        <v>70.47619047619048</v>
       </c>
       <c r="DJ21">
-        <v>0.6722689075630253</v>
+        <v>67.22689075630252</v>
       </c>
       <c r="DK21">
-        <v>0.6446280991735537</v>
+        <v>64.46280991735537</v>
       </c>
       <c r="DL21">
-        <v>0.6446280991735537</v>
+        <v>64.46280991735537</v>
       </c>
     </row>
     <row r="22" spans="1:116">
@@ -8359,19 +8359,19 @@
         <v>10.3448275862069</v>
       </c>
       <c r="DH22">
-        <v>0.5384615384615384</v>
+        <v>53.84615384615385</v>
       </c>
       <c r="DI22">
-        <v>0.5882352941176471</v>
+        <v>58.82352941176471</v>
       </c>
       <c r="DJ22">
-        <v>0.4927536231884058</v>
+        <v>49.27536231884059</v>
       </c>
       <c r="DK22">
-        <v>0.45</v>
+        <v>45</v>
       </c>
       <c r="DL22">
-        <v>0.532258064516129</v>
+        <v>53.2258064516129</v>
       </c>
     </row>
     <row r="23" spans="1:116">
@@ -8709,19 +8709,19 @@
         <v>6.557377049180328</v>
       </c>
       <c r="DH23">
-        <v>0.07954545454545454</v>
+        <v>7.954545454545454</v>
       </c>
       <c r="DI23">
-        <v>0.1710526315789474</v>
+        <v>17.10526315789474</v>
       </c>
       <c r="DJ23">
-        <v>0.08235294117647059</v>
+        <v>8.235294117647058</v>
       </c>
       <c r="DK23">
-        <v>0.1481481481481481</v>
+        <v>14.81481481481481</v>
       </c>
       <c r="DL23">
-        <v>0.1527777777777778</v>
+        <v>15.27777777777778</v>
       </c>
     </row>
     <row r="24" spans="1:116">
@@ -9059,19 +9059,19 @@
         <v>0</v>
       </c>
       <c r="DH24">
-        <v>0.8809523809523809</v>
+        <v>88.09523809523809</v>
       </c>
       <c r="DI24">
-        <v>0.8051948051948052</v>
+        <v>80.51948051948052</v>
       </c>
       <c r="DJ24">
-        <v>0.9518072289156626</v>
+        <v>95.18072289156626</v>
       </c>
       <c r="DK24">
-        <v>0.9324324324324325</v>
+        <v>93.24324324324324</v>
       </c>
       <c r="DL24">
-        <v>0.9506172839506173</v>
+        <v>95.06172839506173</v>
       </c>
     </row>
     <row r="25" spans="1:116">
@@ -9409,19 +9409,19 @@
         <v>9.090909090909092</v>
       </c>
       <c r="DH25">
-        <v>0.487603305785124</v>
+        <v>48.7603305785124</v>
       </c>
       <c r="DI25">
-        <v>0.4608695652173913</v>
+        <v>46.08695652173913</v>
       </c>
       <c r="DJ25">
-        <v>0.5643564356435643</v>
+        <v>56.43564356435643</v>
       </c>
       <c r="DK25">
-        <v>0.4803921568627451</v>
+        <v>48.03921568627451</v>
       </c>
       <c r="DL25">
-        <v>0.6024096385542169</v>
+        <v>60.24096385542169</v>
       </c>
     </row>
     <row r="26" spans="1:116">
@@ -9759,19 +9759,19 @@
         <v>13.1578947368421</v>
       </c>
       <c r="DH26">
-        <v>0.3936170212765958</v>
+        <v>39.36170212765958</v>
       </c>
       <c r="DI26">
-        <v>0.3875</v>
+        <v>38.75</v>
       </c>
       <c r="DJ26">
-        <v>0.3888888888888889</v>
+        <v>38.88888888888889</v>
       </c>
       <c r="DK26">
-        <v>0.4418604651162791</v>
+        <v>44.18604651162791</v>
       </c>
       <c r="DL26">
-        <v>0.5189873417721519</v>
+        <v>51.89873417721519</v>
       </c>
     </row>
     <row r="27" spans="1:116">
@@ -10109,19 +10109,19 @@
         <v>0</v>
       </c>
       <c r="DH27">
-        <v>0.5611510791366906</v>
+        <v>56.11510791366906</v>
       </c>
       <c r="DI27">
-        <v>0.5853658536585366</v>
+        <v>58.53658536585365</v>
       </c>
       <c r="DJ27">
-        <v>0.6503496503496503</v>
+        <v>65.03496503496503</v>
       </c>
       <c r="DK27">
-        <v>0.686046511627907</v>
+        <v>68.6046511627907</v>
       </c>
       <c r="DL27">
-        <v>0.6013513513513513</v>
+        <v>60.13513513513513</v>
       </c>
     </row>
     <row r="28" spans="1:116">
@@ -10459,19 +10459,19 @@
         <v>10</v>
       </c>
       <c r="DH28">
-        <v>0.6461538461538462</v>
+        <v>64.61538461538461</v>
       </c>
       <c r="DI28">
-        <v>0.5671641791044776</v>
+        <v>56.71641791044776</v>
       </c>
       <c r="DJ28">
-        <v>0.6911764705882353</v>
+        <v>69.11764705882352</v>
       </c>
       <c r="DK28">
-        <v>0.6304347826086957</v>
+        <v>63.04347826086957</v>
       </c>
       <c r="DL28">
-        <v>0.6875</v>
+        <v>68.75</v>
       </c>
     </row>
     <row r="29" spans="1:116">
@@ -10809,19 +10809,19 @@
         <v>12.5</v>
       </c>
       <c r="DH29">
-        <v>0.9661016949152542</v>
+        <v>96.61016949152543</v>
       </c>
       <c r="DI29">
-        <v>0.88</v>
+        <v>88</v>
       </c>
       <c r="DJ29">
-        <v>0.9448818897637795</v>
+        <v>94.48818897637796</v>
       </c>
       <c r="DK29">
-        <v>0.8793103448275862</v>
+        <v>87.93103448275862</v>
       </c>
       <c r="DL29">
-        <v>0.9327731092436975</v>
+        <v>93.27731092436974</v>
       </c>
     </row>
     <row r="30" spans="1:116">
@@ -11159,19 +11159,19 @@
         <v>30</v>
       </c>
       <c r="DH30">
-        <v>0.7272727272727273</v>
+        <v>72.72727272727273</v>
       </c>
       <c r="DI30">
-        <v>0.8247422680412371</v>
+        <v>82.4742268041237</v>
       </c>
       <c r="DJ30">
-        <v>0.79</v>
+        <v>79</v>
       </c>
       <c r="DK30">
-        <v>0.6081081081081081</v>
+        <v>60.81081081081081</v>
       </c>
       <c r="DL30">
-        <v>0.7345132743362832</v>
+        <v>73.45132743362832</v>
       </c>
     </row>
     <row r="31" spans="1:116">
@@ -11509,19 +11509,19 @@
         <v>3.333333333333333</v>
       </c>
       <c r="DH31">
-        <v>0.5866666666666667</v>
+        <v>58.66666666666666</v>
       </c>
       <c r="DI31">
-        <v>0.6097560975609756</v>
+        <v>60.97560975609756</v>
       </c>
       <c r="DJ31">
-        <v>0.5783132530120482</v>
+        <v>57.83132530120481</v>
       </c>
       <c r="DK31">
-        <v>0.6428571428571429</v>
+        <v>64.28571428571429</v>
       </c>
       <c r="DL31">
-        <v>0.6296296296296297</v>
+        <v>62.96296296296296</v>
       </c>
     </row>
     <row r="32" spans="1:116">
@@ -11859,19 +11859,19 @@
         <v>43.47826086956522</v>
       </c>
       <c r="DH32">
-        <v>0.7169811320754716</v>
+        <v>71.69811320754717</v>
       </c>
       <c r="DI32">
-        <v>0.6867469879518072</v>
+        <v>68.67469879518072</v>
       </c>
       <c r="DJ32">
-        <v>0.7920792079207921</v>
+        <v>79.20792079207921</v>
       </c>
       <c r="DK32">
-        <v>0.6875</v>
+        <v>68.75</v>
       </c>
       <c r="DL32">
-        <v>0.7325581395348837</v>
+        <v>73.25581395348837</v>
       </c>
     </row>
     <row r="33" spans="1:116">
@@ -12209,19 +12209,19 @@
         <v>5.88235294117647</v>
       </c>
       <c r="DH33">
-        <v>0.125</v>
+        <v>12.5</v>
       </c>
       <c r="DI33">
-        <v>0.2567567567567567</v>
+        <v>25.67567567567567</v>
       </c>
       <c r="DJ33">
-        <v>0.4742268041237113</v>
+        <v>47.42268041237113</v>
       </c>
       <c r="DK33">
-        <v>0.449438202247191</v>
+        <v>44.9438202247191</v>
       </c>
       <c r="DL33">
-        <v>0.4069767441860465</v>
+        <v>40.69767441860465</v>
       </c>
     </row>
   </sheetData>
